--- a/biology/Écologie/Champ_volcanique_San_Francisco/Champ_volcanique_San_Francisco.xlsx
+++ b/biology/Écologie/Champ_volcanique_San_Francisco/Champ_volcanique_San_Francisco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le champ volcanique San Francisco, ou champ volcanique de San Francisco (en anglais : San Francisco volcanic field) est une zone volcanique du nord de l'Arizona, au nord de Flagstaff, aux États-Unis d'Amérique. Le champ s'étend sur 4 700 km² de la limite sud du plateau du Colorado. 
-Le champ comporte environ 600 volcans dont l'âge varie de près de 6 millions d'années à moins de 1 000 ans (du Miocène à l'Holocène), dont le plus jeune est le cratère Sunset. Le plus haut sommet du champ est le pic Humphreys, au périmètre nord de Flagstaff : le pic est le point le plus élevé d'Arizona, à 3 851m et fait partie du pic San Francisco, un complexe stratovolcanique disparu[1].
+Le champ comporte environ 600 volcans dont l'âge varie de près de 6 millions d'années à moins de 1 000 ans (du Miocène à l'Holocène), dont le plus jeune est le cratère Sunset. Le plus haut sommet du champ est le pic Humphreys, au périmètre nord de Flagstaff : le pic est le point le plus élevé d'Arizona, à 3 851m et fait partie du pic San Francisco, un complexe stratovolcanique disparu.
 </t>
         </is>
       </c>
